--- a/biology/Zoologie/Allomyrina_dichotoma/Allomyrina_dichotoma.xlsx
+++ b/biology/Zoologie/Allomyrina_dichotoma/Allomyrina_dichotoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allomyrina dichotoma est une espèce de scarabées-rhinocéros, dont le nom vernaculaire est scarabée-rhinocéros japonais. Le nom japonais est kabutomushi (甲虫), ce qui signifie "insecte casqué". On la rencontre en Chine orientale (de Pékin à Hong Kong), en Corée, au Japon (Honshū et Kyūshū) ainsi que dans certaines régions des Philippines.
 Synonyme : Trypoxylus dichotomus (Linnaeus, 1771)
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La corne céphalique en forme de Y est caractéristique de cette espèce. Elle sert au combat des mâles pendant la période des accouplements. Leur corne thoracique est plus petite. Allomyrina dichotoma se distingue par la grandeur des mâles qui dépassent parfois 8 cm de longueur. Ce grand coléoptère est entièrement rouge foncé et possède des poils jaune blanchâtre.
 </t>
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Allomyrina dichotoma dichotoma
 Allomyrina dichotoma inchachina
